--- a/saas_project_tasks_with_status.xlsx
+++ b/saas_project_tasks_with_status.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laravel\development\restaurants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4BD677-3548-4E33-B8BF-C829E95A0D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD448C9F-54F6-4375-8EBD-965D7241D24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="59">
   <si>
     <t>Category</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -681,7 +684,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,7 +760,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="7"/>
@@ -770,7 +773,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="7"/>
@@ -783,7 +786,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="7"/>
@@ -1296,6 +1299,9 @@
       <c r="E46" s="8"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pending,Completed" sqref="C1:C1048576" xr:uid="{9811F95F-AB0B-4274-A75E-20815176C27D}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>